--- a/sales data/2020.xlsx
+++ b/sales data/2020.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA72E466-02B4-4286-BF31-F10326FEC63E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431D694E-B7B9-4235-BCB2-81F4BA354056}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -791,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -806,7 +806,7 @@
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>22</v>
       </c>
@@ -820,7 +820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,9 +836,8 @@
       <c r="E2" s="29">
         <v>2534456</v>
       </c>
-      <c r="F2" s="29"/>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -854,9 +853,8 @@
       <c r="E3" s="27">
         <v>36636874</v>
       </c>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -872,9 +870,8 @@
       <c r="E4" s="27">
         <v>43262</v>
       </c>
-      <c r="F4" s="27"/>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -890,9 +887,8 @@
       <c r="E5" s="27">
         <v>79415332</v>
       </c>
-      <c r="F5" s="27"/>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -908,9 +904,8 @@
       <c r="E6" s="27">
         <v>9105243</v>
       </c>
-      <c r="F6" s="27"/>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -926,9 +921,8 @@
       <c r="E7" s="27">
         <v>27121221</v>
       </c>
-      <c r="F7" s="27"/>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -944,9 +938,8 @@
       <c r="E8" s="27">
         <v>2881493</v>
       </c>
-      <c r="F8" s="27"/>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -962,9 +955,8 @@
       <c r="E9" s="27">
         <v>51673092</v>
       </c>
-      <c r="F9" s="27"/>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -980,9 +972,8 @@
       <c r="E10" s="27">
         <v>15120701</v>
       </c>
-      <c r="F10" s="27"/>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -998,9 +989,8 @@
       <c r="E11" s="27">
         <v>888459</v>
       </c>
-      <c r="F11" s="27"/>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1016,9 +1006,8 @@
       <c r="E12" s="27">
         <v>86957</v>
       </c>
-      <c r="F12" s="27"/>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1034,9 +1023,8 @@
       <c r="E13" s="27">
         <v>19808289</v>
       </c>
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1052,9 +1040,8 @@
       <c r="E14" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="26"/>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1070,9 +1057,8 @@
       <c r="E15" s="27">
         <v>12472471</v>
       </c>
-      <c r="F15" s="27"/>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -1088,9 +1074,8 @@
       <c r="E16" s="27">
         <v>5266337</v>
       </c>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -1106,9 +1091,8 @@
       <c r="E17" s="27">
         <v>248464</v>
       </c>
-      <c r="F17" s="27"/>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1124,9 +1108,8 @@
       <c r="E18" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="28"/>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -1142,9 +1125,8 @@
       <c r="E19" s="29">
         <v>1747</v>
       </c>
-      <c r="F19" s="29"/>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -1160,9 +1142,8 @@
       <c r="E20" s="27">
         <v>157698</v>
       </c>
-      <c r="F20" s="27"/>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1178,9 +1159,8 @@
       <c r="E21" s="27">
         <v>9900</v>
       </c>
-      <c r="F21" s="27"/>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -1196,9 +1176,8 @@
       <c r="E22" s="27">
         <v>23470447</v>
       </c>
-      <c r="F22" s="27"/>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1214,7 +1193,6 @@
       <c r="E23" s="31">
         <v>12764236</v>
       </c>
-      <c r="F23" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
